--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
@@ -26,8 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Куницын Андрей Сергеевич</author>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -68,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>

--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,11 +39,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="I15")</t>
+          <t>jx:area(lastCell="I9")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,12 +53,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="I15" multisheet="sheetNames")
+          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="I9" multisheet="sheetNames")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +68,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="trip", lastCell="I9")</t>
+          <t>jx:each(items="device.objects", var="trip", lastCell="I9")</t>
         </r>
       </text>
     </comment>
@@ -73,129 +77,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.groupName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spent Fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${trip.startTime}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${trip.endTime}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${trip.duration/86400000.0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${distanceUnit.equals("mi") ? "".format("%.1f mi", trip.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.1f nmi", trip.distance * 0.000539957) : "".format("%.1f km", trip.distance * 0.001)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", trip.maxSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", trip.maxSpeed * 1.15078) : "".format("%.1f kn", trip.maxSpeed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", trip.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", trip.averageSpeed * 1.15078) : "".format("%.1f kn", trip.averageSpeed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${trip.spentFuel}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary length:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[SUM(F9)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary duration:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[SUM(E9)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top speed:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[MAX(G9)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average speed:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[AVERAGE(H9)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spent Fuel:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$[SUM(I9)]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Trips</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>${device.deviceName}</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
+  <si>
+    <t>${device.groupName}</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Start Address</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>End Address</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Top speed</t>
+  </si>
+  <si>
+    <t>Average speed</t>
+  </si>
+  <si>
+    <t>Spent Fuel</t>
+  </si>
+  <si>
+    <t>${trip.startTime}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
+  </si>
+  <si>
+    <t>${trip.endTime}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
+  </si>
+  <si>
+    <t>${trip.duration/86400000.0}</t>
+  </si>
+  <si>
+    <t>${distanceUnit.equals("mi") ? "".format("%.1f mi", trip.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.1f nmi", trip.distance * 0.000539957) : "".format("%.1f km", trip.distance * 0.001)}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", trip.maxSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", trip.maxSpeed * 1.15078) : "".format("%.1f kn", trip.maxSpeed)}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", trip.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", trip.averageSpeed * 1.15078) : "".format("%.1f kn", trip.averageSpeed)}</t>
+  </si>
+  <si>
+    <t>${trip.spentFuel}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY\ HH:MM:SS"/>
-    <numFmt numFmtId="167" formatCode="[H]&quot; h &quot;M&quot; min &quot;S&quot; s&quot;"/>
-    <numFmt numFmtId="168" formatCode="#.##&quot; km&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.##&quot; km/h&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[h]&quot; h &quot;m&quot; min &quot;s&quot; s&quot;"/>
+    <numFmt numFmtId="166" formatCode="#.##&quot; km&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.##&quot; km/h&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -204,22 +176,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -234,7 +191,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -249,7 +206,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -278,7 +235,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -308,136 +265,96 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="15"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -496,37 +413,445 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.68367346938776"/>
+    <col min="1" max="1" width="20.85546875"/>
+    <col min="2" max="2" width="47.28515625"/>
+    <col min="3" max="3" width="20.85546875"/>
+    <col min="4" max="4" width="49.7109375"/>
+    <col min="5" max="5" width="15.85546875"/>
+    <col min="6" max="6" width="13.7109375"/>
+    <col min="7" max="7" width="13.85546875"/>
+    <col min="8" max="8" width="15.85546875"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -537,7 +862,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +877,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -563,7 +888,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +903,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,7 +918,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -608,7 +933,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -619,7 +944,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -648,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -677,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -688,13 +1013,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
       <c r="E11" s="3"/>
@@ -703,13 +1024,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>29</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
       <c r="E12" s="3"/>
@@ -718,13 +1035,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
       <c r="E13" s="3"/>
@@ -733,13 +1046,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>33</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
@@ -748,13 +1057,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>35</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
       <c r="E15" s="3"/>
@@ -764,13 +1069,9 @@
       <c r="I15" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
   </bookViews>
@@ -26,7 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -1069,9 +1064,9 @@
       <c r="I15" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -95,9 +95,6 @@
     <t>Period:</t>
   </si>
   <si>
-    <t>${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -125,18 +122,6 @@
     <t>Spent Fuel</t>
   </si>
   <si>
-    <t>${trip.startTime}</t>
-  </si>
-  <si>
-    <t>${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
-  </si>
-  <si>
-    <t>${trip.endTime}</t>
-  </si>
-  <si>
-    <t>${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
-  </si>
-  <si>
     <t>${trip.duration/86400000.0}</t>
   </si>
   <si>
@@ -150,6 +135,21 @@
   </si>
   <si>
     <t>${trip.spentFuel}</t>
+  </si>
+  <si>
+    <t>${from.toString("YYYY.MM.dd HH:mm:ss")+" - "+to.toString("YYYY.MM.dd HH:mm:ss")}</t>
+  </si>
+  <si>
+    <t>${new("org.joda.time.DateTime", trip.startTime, timezone).toString("YYYY.MM.dd HH:mm:ss")}</t>
+  </si>
+  <si>
+    <t>${new("org.joda.time.DateTime", trip.endTime, timezone).toString("YYYY.MM.dd HH:mm:ss")}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
   </si>
 </sst>
 </file>
@@ -829,7 +829,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
@@ -941,60 +941,60 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="I9" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -34,7 +34,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>jx:area(lastCell="I9")</t>
+          <t>jx:area(lastCell="J9")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="I9" multisheet="sheetNames")
+          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="J9" multisheet="sheetNames")
 </t>
         </r>
       </text>
@@ -63,7 +63,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>jx:each(items="device.objects", var="trip", lastCell="I9")</t>
+          <t>jx:each(items="device.objects", var="trip", lastCell="J9")</t>
         </r>
       </text>
     </comment>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Report type:</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.endTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>${trip.driverName ? trip.driverName : trip.driverUniqueId}</t>
   </si>
 </sst>
 </file>
@@ -826,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -843,10 +849,11 @@
     <col min="7" max="7" width="13.85546875"/>
     <col min="8" max="8" width="15.85546875"/>
     <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="1025" width="8.7109375"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -857,7 +864,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +879,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
@@ -883,7 +890,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,7 +905,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,7 +920,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,7 +935,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="3"/>
@@ -939,7 +946,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -967,8 +974,11 @@
       <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -996,8 +1006,11 @@
       <c r="I9" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1008,7 +1021,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="3"/>
@@ -1019,7 +1032,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="16"/>
       <c r="C12" s="3"/>
@@ -1030,7 +1043,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="3"/>
@@ -1041,7 +1054,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="3"/>
@@ -1052,7 +1065,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="18"/>
       <c r="C15" s="3"/>

--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
     <t>Period:</t>
   </si>
   <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
@@ -122,6 +125,21 @@
     <t>Spent Fuel</t>
   </si>
   <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.startTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.endTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
+  </si>
+  <si>
     <t>${trip.duration/86400000.0}</t>
   </si>
   <si>
@@ -134,25 +152,7 @@
     <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", trip.averageSpeed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", trip.averageSpeed * 1.15078) : "".format("%.1f kn", trip.averageSpeed)}</t>
   </si>
   <si>
-    <t>${trip.spentFuel}</t>
-  </si>
-  <si>
-    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.startLat, trip.startLon), trip.getStartAddress() == null ? "".format("%1$f°, %2$f°", trip.startLat, trip.startLon) : trip.startAddress)}</t>
-  </si>
-  <si>
-    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", trip.endLat, trip.endLon), trip.getEndAddress() == null ? "".format("%1$f°, %2$f°", trip.endLat, trip.endLon) : trip.endAddress)}</t>
-  </si>
-  <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
-  </si>
-  <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.startTime, locale, timezone)}</t>
-  </si>
-  <si>
-    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", trip.endTime, locale, timezone)}</t>
-  </si>
-  <si>
-    <t>Driver</t>
+    <t>${volumeUnit.equals("impGal") ? "".format("%.1f Imp. Gal", trip.spentFuel / 4.546) : volumeUnit.equals("usGal") ? "".format("%.1f U.S. Gal", trip.spentFuel / 3.785) : "".format("%.1f l", trip.spentFuel)}</t>
   </si>
   <si>
     <t>${trip.driverName ? trip.driverName : trip.driverUniqueId}</t>
@@ -162,13 +162,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[h]&quot; h &quot;m&quot; min &quot;s&quot; s&quot;"/>
-    <numFmt numFmtId="166" formatCode="#.##&quot; km&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.##&quot; km/h&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,14 +234,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -293,25 +283,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="15"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
@@ -333,21 +323,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -437,6 +412,159 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12810240" cy="9524160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12810240" cy="9524160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12810240" cy="9524160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -446,7 +574,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -489,7 +617,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -532,7 +660,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -832,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -840,16 +968,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875"/>
-    <col min="2" max="2" width="47.28515625"/>
-    <col min="3" max="3" width="20.85546875"/>
-    <col min="4" max="4" width="49.7109375"/>
-    <col min="5" max="5" width="15.85546875"/>
+    <col min="1" max="1" width="21.140625"/>
+    <col min="2" max="2" width="48.140625"/>
+    <col min="3" max="3" width="21.140625"/>
+    <col min="4" max="4" width="50.5703125"/>
+    <col min="5" max="5" width="16"/>
     <col min="6" max="6" width="13.7109375"/>
     <col min="7" max="7" width="13.85546875"/>
-    <col min="8" max="8" width="15.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16"/>
+    <col min="9" max="9" width="14.7109375"/>
+    <col min="10" max="10" width="17.7109375"/>
     <col min="11" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
@@ -925,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
@@ -948,136 +1076,70 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="I9" s="13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -337,7 +337,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -345,7 +345,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -356,8 +356,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -380,8 +380,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -469,20 +469,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9774774774775"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.0315315315315"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1621621621622"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9774774774775"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.5315315315315"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8558558558559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.9099099099099"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.045045045045"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8558558558559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2927927927928"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0675675675676"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9684684684685"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7072072072072"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8243243243243"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9684684684685"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.6576576576577"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6396396396396"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5405405405405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.518018018018"/>
     <col collapsed="false" hidden="false" max="28" min="13" style="0" width="8.6981981981982"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="14.3018018018018"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="14.1846846846847"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
